--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6305</t>
   </si>
@@ -39,23 +39,26 @@
     <t>HCS-6309:OCH_50 Просмотр списка ссылок с внутренних страниц портала ГИС ЖКХ</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6306</t>
   </si>
   <si>
     <t xml:space="preserve"> HCS-6306:OCH_51 Проверка отсутствия блока "Мобильное приложение"</t>
+  </si>
+  <si>
+    <t>Группа тестов : Реестр лицензий субъекта РФ</t>
+  </si>
+  <si>
+    <t>HCS-6276:LIC_27 Просмотр карточки лицензии в открытой части РЛС</t>
+  </si>
+  <si>
+    <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6276</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +75,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,12 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,14 +447,13 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -440,14 +462,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -456,29 +477,45 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -82,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +101,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -122,6 +128,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,15 +519,17 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6305</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6276</t>
+  </si>
+  <si>
+    <t>HCS-6275:LIC_25 Просмотр карточки сведений о дисквалифицированном лице в открытой части реестра дискв.лиц</t>
+  </si>
+  <si>
+    <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6275</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +107,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -128,7 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,13 +518,26 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6305</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6275</t>
+  </si>
+  <si>
+    <t>HCS-6273:LIC_24 Просмотр и поиск в реестре дисквалифицированных лиц в открытой части</t>
+  </si>
+  <si>
+    <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6273</t>
+  </si>
+  <si>
+    <t>HCS-6274:LIC_26 Просмотр и поиск в реестре лицензий субъекта РФ в открытой части</t>
+  </si>
+  <si>
+    <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6274</t>
+  </si>
+  <si>
+    <t>HCS-6277:LIC_28 Просмотр и поиск в сводном федеральном реестре лицензий</t>
+  </si>
+  <si>
+    <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6277</t>
+  </si>
+  <si>
+    <t>HCS-6278:LIC_29 Просмотр карточки лицензии в сводном федеральном реестре лицензий</t>
+  </si>
+  <si>
+    <t>http://testlink.lanit.ru/linkto.php?tprojectPrefix=HCS&amp;item=testcase&amp;id=HCS-6278</t>
   </si>
 </sst>
 </file>
@@ -429,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,17 +550,71 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Тесты.xlsx
+++ b/Тесты.xlsx
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,11 +611,13 @@
       <c r="B30" t="s">
         <v>20</v>
       </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
